--- a/custom_image/flask_server/static/data/영수증_양식_파일.xlsx
+++ b/custom_image/flask_server/static/data/영수증_양식_파일.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhkim/PycharmProjects/testPython/pythonProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhkim/PycharmProjects/accountingProject/custom_image/flask_server/static/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD828F05-4F23-5F4A-AE1A-112096B08971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813860E7-1790-0E46-A5B2-E4C5E60CA6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35380" yWindow="5960" windowWidth="20200" windowHeight="16180" xr2:uid="{22FC83B5-6248-0748-9B81-3EF013DBAA32}"/>
+    <workbookView xWindow="1580" yWindow="8140" windowWidth="29900" windowHeight="20120" xr2:uid="{22FC83B5-6248-0748-9B81-3EF013DBAA32}"/>
   </bookViews>
   <sheets>
     <sheet name="4. 법카-영수증 제출양식(평일)" sheetId="1" r:id="rId1"/>
@@ -149,11 +149,10 @@
     <t>영수증 금액</t>
   </si>
   <si>
-    <t>업체 선정 사유</t>
+    <t>네이버와 쿠팡 구매 건은 개별 금액이 아닌 해당 결제 총액을 기재</t>
   </si>
   <si>
-    <t>영수증 부착
-(최대한 크게 확대 후 가로로 부착 바랍니다. 스캔 및 캡쳐후 부작, 구매 내역(품목), 금액, 날짜, 카드번호, 가맹점 명칭이 잘 보여야 합니다. 영수증이 큰 경우 구매 내역 및 수량 기재란까지 넘어가도 상관없음!)</t>
+    <t>업체 선정 사유</t>
   </si>
   <si>
     <t>샘플2.  오프라인 일반 결제시 영수증(카드 전표) 부착</t>
@@ -570,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -669,15 +668,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1141,15 +1131,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F789523-C847-A64A-AD30-00271E33BC87}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:H22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="143" zoomScaleNormal="100" zoomScaleSheetLayoutView="143" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="1.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="1" customWidth="1"/>
@@ -1333,9 +1323,11 @@
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
+      <c r="B6" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1361,11 +1353,11 @@
     </row>
     <row r="7" spans="1:26" ht="25.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="31"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="2"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1390,9 +1382,7 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="24" customHeight="1">
-      <c r="A8" s="16" t="s">
-        <v>17</v>
-      </c>
+      <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>

--- a/custom_image/flask_server/static/data/영수증_양식_파일.xlsx
+++ b/custom_image/flask_server/static/data/영수증_양식_파일.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhkim/PycharmProjects/accountingProject/custom_image/flask_server/static/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813860E7-1790-0E46-A5B2-E4C5E60CA6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543C06CE-A290-E847-A1D1-AB24B1D8D381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="8140" windowWidth="29900" windowHeight="20120" xr2:uid="{22FC83B5-6248-0748-9B81-3EF013DBAA32}"/>
+    <workbookView xWindow="4300" yWindow="780" windowWidth="29900" windowHeight="20120" xr2:uid="{22FC83B5-6248-0748-9B81-3EF013DBAA32}"/>
   </bookViews>
   <sheets>
     <sheet name="4. 법카-영수증 제출양식(평일)" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>하우스 영수증 제출 양식</t>
   </si>
@@ -149,9 +149,6 @@
     <t>영수증 금액</t>
   </si>
   <si>
-    <t>네이버와 쿠팡 구매 건은 개별 금액이 아닌 해당 결제 총액을 기재</t>
-  </si>
-  <si>
     <t>업체 선정 사유</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+  </numFmts>
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -569,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -668,6 +668,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1132,7 +1141,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="143" zoomScaleNormal="100" zoomScaleSheetLayoutView="143" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -1323,11 +1332,9 @@
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1353,11 +1360,11 @@
     </row>
     <row r="7" spans="1:26" ht="25.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="31"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="2"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1562,7 +1569,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="2"/>
       <c r="L14" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
@@ -1777,10 +1784,10 @@
     </row>
     <row r="22" spans="1:26" ht="30.75" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -1809,10 +1816,10 @@
     </row>
     <row r="23" spans="1:26" ht="30.75" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -1841,10 +1848,10 @@
     </row>
     <row r="24" spans="1:26" ht="30.75" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1912,7 +1919,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
